--- a/4月のミーティング向けの資料/takibayashi-D.xlsx
+++ b/4月のミーティング向けの資料/takibayashi-D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takedakiyoshi/lab/kline/KLINE/4月のミーティング向けの資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66FBE29-0C9C-4A48-8FF7-E46543E6DCA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5499D41B-CB82-484D-8892-78A69318C291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33500" yWindow="-800" windowWidth="25480" windowHeight="14920" xr2:uid="{7CC73CB4-CDDD-EC44-B32E-84A35A9C188A}"/>
   </bookViews>
@@ -806,60 +806,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>707813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89747</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1347893" y="2942693"/>
-          <a:ext cx="235374" cy="452440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3516</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1294,6 +1240,114 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>744901</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129466</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F79D3FF-438D-734B-B945-623780C4E4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1379901" y="2894445"/>
+          <a:ext cx="235342" cy="237400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89747</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D15EF5-F96D-2045-BFF0-B2722398939E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1347893" y="2942693"/>
+          <a:ext cx="235374" cy="452440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1598,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D6086A-5A36-2647-9BEA-DE6229B37F19}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="206" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
